--- a/serviceauto/src/test/resources/servicecasesv1.xlsx
+++ b/serviceauto/src/test/resources/servicecasesv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Myjob\serviceauto\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14266BD-8E66-46CA-B598-53C95CC5FEE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FAEEAE-EBAD-4E41-873A-9A9A4CFAFE5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2250" yWindow="1275" windowWidth="25485" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="750" windowWidth="27060" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,40 +35,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正确用户名，正确密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://test.lemonban.com:8081/futureloan/mvc/api/member/login</t>
   </si>
   <si>
     <t>http://test.lemonban.com:8082/futureloan/mvc/api/member/login</t>
   </si>
   <si>
-    <t>params</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"18330372028","pwd":"123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"18330372028","pwd":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"18330372028","pwd":"111111"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type(接口提交类型)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,6 +71,47 @@
   <si>
     <t>Desc(用例描述)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobilephone(手机号)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pwd(密码)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传手机号，不传密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不传手机号，传密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合格的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格的手机号+不合格密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格手机号+合格密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复的手机号+密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://test.lemonban.com:8083/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>http://test.lemonban.com:8084/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>http://test.lemonban.com:8085/futureloan/mvc/api/member/login</t>
   </si>
 </sst>
 </file>
@@ -141,9 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -425,56 +441,59 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="59.125" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="33.625" customWidth="1"/>
-    <col min="8" max="8" width="31.125" customWidth="1"/>
+    <col min="1" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.625" customWidth="1"/>
+    <col min="9" max="9" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
       <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
         <v>12</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -483,54 +502,124 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>18330372028</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>111111</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>18330372028</v>
+      </c>
+      <c r="G5" s="2">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>18330372028</v>
+      </c>
+      <c r="G6" s="2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>18330372028</v>
+      </c>
+      <c r="G7" s="2">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/serviceauto/src/test/resources/servicecasesv1.xlsx
+++ b/serviceauto/src/test/resources/servicecasesv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Myjob\serviceauto\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FAEEAE-EBAD-4E41-873A-9A9A4CFAFE5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938EC919-2D16-45B2-9D98-FE7DA7A998AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="750" windowWidth="27060" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6840" yWindow="4695" windowWidth="27060" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/serviceauto/src/test/resources/servicecasesv1.xlsx
+++ b/serviceauto/src/test/resources/servicecasesv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Myjob\serviceauto\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938EC919-2D16-45B2-9D98-FE7DA7A998AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A9297A-263C-40E8-8D91-4385E964695E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6840" yWindow="4695" windowWidth="27060" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="27060" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -154,12 +154,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -444,7 +445,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -453,7 +454,7 @@
     <col min="3" max="3" width="56" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="23.25" customWidth="1"/>
-    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="33.625" customWidth="1"/>
     <col min="9" max="9" width="31.125" customWidth="1"/>
@@ -475,7 +476,7 @@
       <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -504,7 +505,7 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>18330372028</v>
       </c>
     </row>
@@ -544,7 +545,7 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>123</v>
       </c>
     </row>
@@ -564,7 +565,7 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>18330372028</v>
       </c>
       <c r="G5" s="2">
@@ -587,7 +588,7 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>18330372028</v>
       </c>
       <c r="G6" s="2">
@@ -610,7 +611,7 @@
       <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>18330372028</v>
       </c>
       <c r="G7" s="2">
